--- a/doc/Time.xlsx
+++ b/doc/Time.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elden\Documents\Repositories\Digital-Currency-Exchange-Routing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2595472B-07EA-4C59-8F7C-BE0CBC651B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B275-0BCB-4A19-894D-D225E81B4432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#E#C" sheetId="1" r:id="rId1"/>
-    <sheet name="子环路消除约束" sheetId="2" r:id="rId2"/>
+    <sheet name="#E#C(无上界)" sheetId="1" r:id="rId1"/>
+    <sheet name="子环路消除约束(无上界)" sheetId="2" r:id="rId2"/>
+    <sheet name="#E#C(有上界)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t xml:space="preserve">        货币种类数量
 交易所数量</t>
@@ -49,6 +72,42 @@
   <si>
     <t>无子环路消除</t>
   </si>
+  <si>
+    <t>#C = 2</t>
+  </si>
+  <si>
+    <t>#C = 3</t>
+  </si>
+  <si>
+    <t>#C = 4</t>
+  </si>
+  <si>
+    <t>#C = 5</t>
+  </si>
+  <si>
+    <t>#E = 1</t>
+  </si>
+  <si>
+    <t>#E = 2</t>
+  </si>
+  <si>
+    <t>#E = 3</t>
+  </si>
+  <si>
+    <t>#E = 4</t>
+  </si>
+  <si>
+    <t>#E = 5</t>
+  </si>
+  <si>
+    <t>#E = 6</t>
+  </si>
+  <si>
+    <t>#E = 7</t>
+  </si>
+  <si>
+    <t>#E = 8</t>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +162,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,10 +229,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -179,6 +253,2919 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>归一化时间</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>固定货币种类数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.3324835441812485E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3980146864626142E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4174695362478119E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.625812099709727E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6373485232456299E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44874628507579539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0413629344715272E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19048645810872916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50419856887059089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.8869054104682454E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4288493036579997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5219091565192483E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4784232958379202E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5195452536047627E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8984777976503919E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2545355879243193E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0455163496443499E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8150740938475484E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.696213801573873E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7431727098126074E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.259479919557471E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$I$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.6592401850762971E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2395724763950245E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2397898216676326E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="663197391"/>
+        <c:axId val="663197807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="663197391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663197807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663197807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663197391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>归一化时间</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>固定货币种类数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25019175025649754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91673556394497757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74992778237093016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95840264565548805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29148031198015828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95846241196920101</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95834287934177498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D10-4853-AC80-371A3F432FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$C$13:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.1827101365020486E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.142202763078132E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13052605303983095</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10362162467232663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2130549913025758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14395188358529315</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59118345989067467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D10-4853-AC80-371A3F432FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.5173032027874876E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3476984919303553E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6280209890734636E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1905072970596451E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0910210054195996E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.598672576283311E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8811161950242723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D10-4853-AC80-371A3F432FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界)'!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.2810648909004535E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.726654827666325E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2321205689973274E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4694034630154852E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0739995191822052E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1564385335135191E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60546931842728324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9D10-4853-AC80-371A3F432FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="808498559"/>
+        <c:axId val="808498975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="808498559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808498975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="808498975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808498559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188118</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>502444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368CB2CA-5E3D-4E7B-B861-F115A68E4B48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>692943</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E85FFA-F509-4C00-827D-0B3C4DE7F6D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,7 +3434,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -696,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFC2F4F-02DC-4C54-A744-B338E8E30D0D}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="B2:E11 A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -708,34 +3695,34 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>3</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="1">
@@ -752,7 +3739,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -769,7 +3756,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -786,7 +3773,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -803,7 +3790,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -820,7 +3807,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -837,7 +3824,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -854,7 +3841,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -871,7 +3858,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -895,4 +3882,546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4778A3EF-D417-4E06-BC00-FC009FA5B12B}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" style="7" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" style="7"/>
+    <col min="8" max="8" width="20.59765625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.59765625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.9883594512939401E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.6929616928100499E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.0837984085083001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.12299633026123</v>
+      </c>
+      <c r="F2" s="1">
+        <f>MAX(B2:E2)</f>
+        <v>1.12299633026123</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2:L2">B2:E2/F2</f>
+        <v>5.3324835441812485E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.3980146864626142E-2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.4174695362478119E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.1942138671875E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.1915187835693297E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.148607492446899</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.331161499023437</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F9" si="0">MAX(B3:E3)</f>
+        <v>0.331161499023437</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" cm="1">
+        <f t="array" ref="I3:L3">B3:E3/F3</f>
+        <v>6.625812099709727E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>9.6373485232456299E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.44874628507579539</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.79495811462402E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6.7821979522704995E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.17951798439025801</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.35604619979858299</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35604619979858299</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" cm="1">
+        <f t="array" ref="I4:L4">B4:E4/F4</f>
+        <v>5.0413629344715272E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.19048645810872916</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.50419856887059089</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.2939443588256801E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.3842306137084898E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.792880058288574</v>
+      </c>
+      <c r="E5" s="3">
+        <v>121.571772813796</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>121.571772813796</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" cm="1">
+        <f t="array" ref="I5:L5">B5:E5/F5</f>
+        <v>1.8869054104682454E-4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.4288493036579997E-4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6.5219091565192483E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.9766044616699201E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.11070442199706999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.78190994262695301</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200.568012237548</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>200.568012237548</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" cm="1">
+        <f t="array" ref="I6:L6">B6:E6/F6</f>
+        <v>3.4784232958379202E-5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.5195452536047627E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.8984777976503919E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.3935079574584898E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.47981071472167E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.61735224723815896</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10.6164124011993</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>10.6164124011993</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" cm="1">
+        <f t="array" ref="I7:L7">B7:E7/F7</f>
+        <v>2.2545355879243193E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>7.0455163496443499E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.8150740938475484E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.29408740997314E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.51960492134094205</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.7158577442169101</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2980.8</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>2980.8</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" cm="1">
+        <f t="array" ref="I8:L8">B8:E8/F8</f>
+        <v>7.696213801573873E-6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.7431727098126074E-4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3.259479919557471E-3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.2938013076782199E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.30718183517455999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>11.026761054992599</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4923.1231200000002</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>4923.1231200000002</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" cm="1">
+        <f t="array" ref="I9:L9">B9:E9/F9</f>
+        <v>4.6592401850762971E-6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.2395724763950245E-5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.2397898216676326E-3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
+        <f>MAX(B2:B9)</f>
+        <v>2.3935079574584898E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" ref="C10:E10" si="1">MAX(C2:C9)</f>
+        <v>0.51960492134094205</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>11.026761054992599</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>4923.1231200000002</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" cm="1">
+        <f t="array" ref="B13:B20">B2:B9/B10</f>
+        <v>0.25019175025649754</v>
+      </c>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13:C20">C2:C9/C10</f>
+        <v>5.1827101365020486E-2</v>
+      </c>
+      <c r="D13" s="1" cm="1">
+        <f t="array" ref="D13:D20">D2:D9/D10</f>
+        <v>5.5173032027874876E-3</v>
+      </c>
+      <c r="E13" s="1" cm="1">
+        <f t="array" ref="E13:E20">E2:E9/E10</f>
+        <v>2.2810648909004535E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.91673556394497757</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.142202763078132E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.3476984919303553E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.726654827666325E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.74992778237093016</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.13052605303983095</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6280209890734636E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.2321205689973274E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.95840264565548805</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.10362162467232663</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.1905072970596451E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.4694034630154852E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.29148031198015828</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.2130549913025758</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.0910210054195996E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.0739995191822052E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.14395188358529315</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.598672576283311E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2.1564385335135191E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.95846241196920101</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.8811161950242723</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.60546931842728324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.95834287934177498</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.59118345989067467</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/Time.xlsx
+++ b/doc/Time.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elden\Documents\Repositories\Digital-Currency-Exchange-Routing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65B275-0BCB-4A19-894D-D225E81B4432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8B7EB-8ADF-475A-A114-066F082351D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#E#C(无上界)" sheetId="1" r:id="rId1"/>
     <sheet name="子环路消除约束(无上界)" sheetId="2" r:id="rId2"/>
     <sheet name="#E#C(有上界)" sheetId="4" r:id="rId3"/>
+    <sheet name="#E#C(有上界允许1%间隙) " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
   <si>
     <t xml:space="preserve">        货币种类数量
 交易所数量</t>
@@ -204,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,10 +233,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,6 +2013,1756 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>归一化时间</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>固定货币种类数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050">
+              <a:effectLst/>
+              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9673661727742336E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22763531687584626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43888867907901863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0203119555457592E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9375623722383809E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16337949793255493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0619571597334185E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30302838929216158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54648396771501118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0840450746613939E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4597039200386075E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24686138690856865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3985239793049115E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6344444263751363E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6072772391618646E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0580886581459745E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8009542083242789E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8841771528198175E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.502588384990171E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7817095884786267E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44736072616048955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1639764473907958E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3786518149519052E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1258402128701047E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-772C-4B72-A3B6-B81FA11882C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="663197391"/>
+        <c:axId val="663197807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="663197391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663197807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="663197807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="663197391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>归一化时间</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>固定货币种类数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1050" b="1">
+              <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+              <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$B$13:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11674787830207912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32369340674021346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23416373109456409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17637339070882641</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44020222048783192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94120418222343993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61768655824385843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C52-484B-BA93-1CE8DE1DC606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$C$13:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11084004527752897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13676633444075267</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35897765954403815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60682513801882332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7692378418800816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51280888224164722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67521341326370221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C52-484B-BA93-1CE8DE1DC606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$D$13:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.2309318949551147E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3813935238379592E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1038763550848732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34968612954936912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4678350900561652E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77262478173119942</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74165011862454355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C52-484B-BA93-1CE8DE1DC606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#C = 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>#E = 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#E = 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#E = 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#E = 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#E = 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#E = 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#E = 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#E = 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'#E#C(有上界允许1%间隙) '!$E$13:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.7729742176712668E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6952645429251592E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2016058958874527E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9546376216492717E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3304611410406068E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0480065323919732E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56149516000268318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C52-484B-BA93-1CE8DE1DC606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="808498559"/>
+        <c:axId val="808498975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="808498559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808498975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="808498975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="808498559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2085,6 +3843,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2589,6 +4427,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3152,6 +5996,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>235744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>188118</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>502444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947911D3-3F9D-4113-A5F1-2E62EC164A7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>621505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>692943</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5676A14-8A2C-421E-9E50-BFFEB1B076F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3695,14 +6620,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -3888,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4778A3EF-D417-4E06-BC00-FC009FA5B12B}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4243,19 +7168,19 @@
       <c r="A10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>MAX(B2:B9)</f>
         <v>2.3935079574584898E-2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" ref="C10:E10" si="1">MAX(C2:C9)</f>
         <v>0.51960492134094205</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>11.026761054992599</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>4923.1231200000002</v>
       </c>
@@ -4424,4 +7349,579 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5ED76-EDB7-43BB-95A8-47FA3BE0CF2D}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="B2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" style="7" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" style="7"/>
+    <col min="8" max="8" width="20.59765625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.59765625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>3.9587020874023403E-3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1.29337310791015E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2.4936676025390601E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>5.6817770004272398E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f>MAX(B2:E2)</f>
+        <v>5.6817770004272398E-2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" cm="1">
+        <f t="array" ref="I2:L2">B2:E2/F2</f>
+        <v>6.9673661727742336E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.22763531687584626</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.43888867907901863</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1.09758377075195E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.5959024429321199E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>8.87598991394042E-2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.54327440261840798</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F9" si="0">MAX(B3:E3)</f>
+        <v>0.54327440261840798</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" cm="1">
+        <f t="array" ref="I3:L3">B3:E3/F3</f>
+        <v>2.0203119555457592E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.9375623722383809E-2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.16337949793255493</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>7.9400539398193307E-3</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.116688251495361</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.21043658256530701</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.385073661804199</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.385073661804199</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" cm="1">
+        <f t="array" ref="I4:L4">B4:E4/F4</f>
+        <v>2.0619571597334185E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.30302838929216158</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.54648396771501118</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5.9804916381835903E-3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.1888475418090799E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.70840716361999501</v>
+      </c>
+      <c r="E5" s="11">
+        <v>2.86965560913085</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.86965560913085</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1" cm="1">
+        <f t="array" ref="I5:L5">B5:E5/F5</f>
+        <v>2.0840450746613939E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.4597039200386075E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.24686138690856865</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.4926433563232399E-2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>7.0809364318847601E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.17154455184936501</v>
+      </c>
+      <c r="E6" s="14">
+        <v>10.672990798950099</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>10.672990798950099</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" cm="1">
+        <f t="array" ref="I6:L6">B6:E6/F6</f>
+        <v>1.3985239793049115E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6.6344444263751363E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.6072772391618646E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>3.3908128738403299E-2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8.9761018753051702E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.5652120113372801</v>
+      </c>
+      <c r="E7" s="15">
+        <v>320.465855836868</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>320.465855836868</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" cm="1">
+        <f t="array" ref="I7:L7">B7:E7/F7</f>
+        <v>1.0580886581459745E-4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.8009542083242789E-4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.8841771528198175E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>3.1914472579955999E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5.9838771820068297E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.50246238708496</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3.3585031032562198</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3585031032562198</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" cm="1">
+        <f t="array" ref="I8:L8">B8:E8/F8</f>
+        <v>9.502588384990171E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.7817095884786267E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.44736072616048955</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2.0944595336914E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>7.8789472579955999E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2.0258371829986501</v>
+      </c>
+      <c r="E9" s="15">
+        <v>179.94002699851899</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>179.94002699851899</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" cm="1">
+        <f t="array" ref="I9:L9">B9:E9/F9</f>
+        <v>1.1639764473907958E-4</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.3786518149519052E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.1258402128701047E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <f>MAX(B2:B9)</f>
+        <v>3.3908128738403299E-2</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:E10" si="1">MAX(C2:C9)</f>
+        <v>0.116688251495361</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>2.0258371829986501</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>320.465855836868</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" cm="1">
+        <f t="array" ref="B13:B20">B2:B9/B10</f>
+        <v>0.11674787830207912</v>
+      </c>
+      <c r="C13" s="1" cm="1">
+        <f t="array" ref="C13:C20">C2:C9/C10</f>
+        <v>0.11084004527752897</v>
+      </c>
+      <c r="D13" s="1" cm="1">
+        <f t="array" ref="D13:D20">D2:D9/D10</f>
+        <v>1.2309318949551147E-2</v>
+      </c>
+      <c r="E13" s="1" cm="1">
+        <f t="array" ref="E13:E20">E2:E9/E10</f>
+        <v>1.7729742176712668E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.32369340674021346</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.13676633444075267</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.3813935238379592E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.6952645429251592E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.23416373109456409</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1038763550848732</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.2016058958874527E-3</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.17637339070882641</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.35897765954403815</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.34968612954936912</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8.9546376216492717E-3</v>
+      </c>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.44020222048783192</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.60682513801882332</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.4678350900561652E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3.3304611410406068E-2</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.7692378418800816</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.77262478173119942</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.94120418222343993</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.51280888224164722</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.74165011862454355</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.0480065323919732E-2</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+    </row>
+    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.61768655824385843</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.67521341326370221</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.56149516000268318</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/Time.xlsx
+++ b/doc/Time.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elden\Documents\Repositories\Digital-Currency-Exchange-Routing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D8B7EB-8ADF-475A-A114-066F082351D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1ACC15-E543-45E8-9E3C-977EB50283CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="1718" windowWidth="21600" windowHeight="11422" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#E#C(无上界)" sheetId="1" r:id="rId1"/>
     <sheet name="子环路消除约束(无上界)" sheetId="2" r:id="rId2"/>
-    <sheet name="#E#C(有上界)" sheetId="4" r:id="rId3"/>
-    <sheet name="#E#C(有上界允许1%间隙) " sheetId="5" r:id="rId4"/>
+    <sheet name="#E#C(有上界允许1%间隙) " sheetId="5" r:id="rId3"/>
+    <sheet name="间隙研究" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t xml:space="preserve">        货币种类数量
 交易所数量</t>
@@ -107,17 +107,49 @@
     <t>#E = 7</t>
   </si>
   <si>
-    <t>#E = 8</t>
+    <t>当前最优目标值/全局最优目标值</t>
+  </si>
+  <si>
+    <t>当前最优目标值</t>
+  </si>
+  <si>
+    <t>求解时间</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MAXGap</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -170,10 +202,12 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="楷体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,14 +270,35 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -376,7 +431,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$2</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -411,7 +466,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -431,18 +486,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$2:$L$2</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.3324835441812485E-3</c:v>
+                  <c:v>0.20003665572307439</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3980146864626142E-2</c:v>
+                  <c:v>0.46665922927358033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4174695362478119E-2</c:v>
+                  <c:v>0.63334714563478034</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -453,7 +508,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000000-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -462,7 +517,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$3</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -497,7 +552,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -517,18 +572,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$3:$L$3</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$3:$L$3</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.625812099709727E-2</c:v>
+                  <c:v>2.930802962306504E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6373485232456299E-2</c:v>
+                  <c:v>4.2947500385013201E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44874628507579539</c:v>
+                  <c:v>0.14918795948308219</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -539,7 +594,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000001-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -548,7 +603,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$4</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -583,7 +638,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -603,18 +658,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$4:$L$4</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$4:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.0413629344715272E-2</c:v>
+                  <c:v>1.7672215426081914E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19048645810872916</c:v>
+                  <c:v>5.3205535538737046E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50419856887059089</c:v>
+                  <c:v>0.20295891964763912</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -625,7 +680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000002-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -634,7 +689,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$5</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -669,7 +724,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -689,18 +744,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$5:$L$5</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$5:$L$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.8869054104682454E-4</c:v>
+                  <c:v>9.5077917055073416E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4288493036579997E-4</c:v>
+                  <c:v>8.8705005010637134E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5219091565192483E-3</c:v>
+                  <c:v>0.1229823758378306</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -711,7 +766,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000003-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -720,7 +775,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$6</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -755,7 +810,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -775,18 +830,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$6:$L$6</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$6:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.4784232958379202E-5</c:v>
+                  <c:v>2.0539345057232899E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5195452536047627E-4</c:v>
+                  <c:v>1.8027556249989457E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8984777976503919E-3</c:v>
+                  <c:v>4.3585296488890882E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -797,7 +852,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000004-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -806,7 +861,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$7</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +896,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -861,18 +916,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$7:$L$7</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$7:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.2545355879243193E-3</c:v>
+                  <c:v>8.1028801163602806E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0455163496443499E-3</c:v>
+                  <c:v>1.3659714788892201E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8150740938475484E-2</c:v>
+                  <c:v>7.9587691401714247E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -883,7 +938,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000005-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -892,7 +947,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$8</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -933,7 +988,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -953,18 +1008,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$8:$L$8</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$I$8:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.696213801573873E-6</c:v>
+                  <c:v>3.0337120330348697E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7431727098126074E-4</c:v>
+                  <c:v>3.076482535252237E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.259479919557471E-3</c:v>
+                  <c:v>8.8828397649488985E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -975,99 +1030,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界)'!$H$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界)'!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界)'!$I$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.6592401850762971E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.2395724763950245E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2397898216676326E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8BF7-4873-B9FC-EEE0DD82CE8D}"/>
+              <c16:uniqueId val="{00000006-772C-4B72-A3B6-B81FA11882C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1375,7 +1338,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$B$12</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1410,9 +1373,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$12:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>#E = 1</c:v>
                 </c:pt>
@@ -1433,42 +1396,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$B$13:$B$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$B$12:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.25019175025649754</c:v>
+                  <c:v>0.17146506560657929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91673556394497757</c:v>
+                  <c:v>0.37046372000573691</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74992778237093016</c:v>
+                  <c:v>0.25625841000525984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95840264565548805</c:v>
+                  <c:v>0.25623791862188644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29148031198015828</c:v>
+                  <c:v>0.25717369179593325</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95846241196920101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95834287934177498</c:v>
+                  <c:v>0.20004371495119666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1433,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D10-4853-AC80-371A3F432FE8}"/>
+              <c16:uniqueId val="{00000000-5C52-484B-BA93-1CE8DE1DC606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1485,7 +1442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$C$12</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1520,9 +1477,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$12:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>#E = 1</c:v>
                 </c:pt>
@@ -1543,42 +1500,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$C$13:$C$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$C$12:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.1827101365020486E-2</c:v>
+                  <c:v>0.16732239031986182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.142202763078132E-2</c:v>
+                  <c:v>0.2270832440463427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13052605303983095</c:v>
+                  <c:v>0.32272461035157568</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10362162467232663</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2130549913025758</c:v>
+                  <c:v>0.94420206002942908</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14395188358529315</c:v>
+                  <c:v>0.70516435949084999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59118345989067467</c:v>
+                  <c:v>0.84858069400991443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,7 +1537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D10-4853-AC80-371A3F432FE8}"/>
+              <c16:uniqueId val="{00000001-5C52-484B-BA93-1CE8DE1DC606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,7 +1546,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$D$12</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$D$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1630,9 +1581,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$12:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>#E = 1</c:v>
                 </c:pt>
@@ -1653,42 +1604,36 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$D$13:$D$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$D$12:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.5173032027874876E-3</c:v>
+                  <c:v>5.5271517504965013E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3476984919303553E-2</c:v>
+                  <c:v>0.19199341860038144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6280209890734636E-2</c:v>
+                  <c:v>0.29963240407457031</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1905072970596451E-2</c:v>
+                  <c:v>0.33744276741456092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0910210054195996E-2</c:v>
+                  <c:v>0.55561435668626735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.598672576283311E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8811161950242723</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.59634267784521611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,7 +1641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D10-4853-AC80-371A3F432FE8}"/>
+              <c16:uniqueId val="{00000002-5C52-484B-BA93-1CE8DE1DC606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1705,7 +1650,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$E$12</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$E$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1740,9 +1685,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'#E#C(有上界)'!$A$13:$A$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$A$12:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>#E = 1</c:v>
                 </c:pt>
@@ -1763,41 +1708,35 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界)'!$E$13:$E$20</c:f>
+              <c:f>'#E#C(有上界允许1%间隙) '!$E$12:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2810648909004535E-4</c:v>
+                  <c:v>1.2999166539748381E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.726654827666325E-5</c:v>
+                  <c:v>1.9169399332993593E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2321205689973274E-5</c:v>
+                  <c:v>2.1990574392306956E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4694034630154852E-2</c:v>
+                  <c:v>4.0870804110405895E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0739995191822052E-2</c:v>
+                  <c:v>0.18988444578746658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1564385335135191E-3</c:v>
+                  <c:v>1.8715870415923326E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60546931842728324</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1806,7 +1745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D10-4853-AC80-371A3F432FE8}"/>
+              <c16:uniqueId val="{00000003-5C52-484B-BA93-1CE8DE1DC606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2047,39 +1986,21 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>MINGap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
                 <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
                 <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               </a:rPr>
-              <a:t>归一化时间</a:t>
+              <a:t>对性能和精度的影响</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" sz="1050" b="1" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>固定货币种类数量</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1050" b="1" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1050">
-              <a:effectLst/>
+            <a:endParaRPr lang="en-US" sz="1050" b="1">
               <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
             </a:endParaRPr>
@@ -2122,15 +2043,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$2</c:f>
+              <c:f>间隙研究!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#E = 1</c:v>
+                  <c:v>当前最优目标值/全局最优目标值</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2138,7 +2059,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2149,53 +2070,84 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>间隙研究!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$2:$L$2</c:f>
+              <c:f>间隙研究!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>6.9673661727742336E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22763531687584626</c:v>
+                  <c:v>0.99999732637194394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43888867907901863</c:v>
+                  <c:v>0.99998958364618429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.99996564186966619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99959697087141841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99958382558911463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99674383537283517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99619757884268323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99374000966995535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,621 +2155,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$3:$L$3</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0203119555457592E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9375623722383809E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16337949793255493</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0619571597334185E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30302838929216158</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54648396771501118</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$5:$L$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.0840450746613939E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4597039200386075E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.24686138690856865</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$6:$L$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.3985239793049115E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6344444263751363E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6072772391618646E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0580886581459745E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8009542083242789E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8841771528198175E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$8:$L$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.502588384990171E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7817095884786267E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44736072616048955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-772C-4B72-A3B6-B81FA11882C2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$H$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$1:$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$I$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1639764473907958E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3786518149519052E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1258402128701047E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-772C-4B72-A3B6-B81FA11882C2}"/>
+              <c16:uniqueId val="{00000001-5F6D-4B0C-BDE5-B1BBE4AB4366}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2831,17 +2169,150 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="663197391"/>
-        <c:axId val="663197807"/>
+        <c:axId val="1755740448"/>
+        <c:axId val="1755741280"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>间隙研究!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求解时间</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>间隙研究!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.0%">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>间隙研究!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="0.000000">
+                  <c:v>59.599166870117102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.275810194015399</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000000">
+                  <c:v>3.2906511545181201</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.000000">
+                  <c:v>1.554592132568358</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.000000">
+                  <c:v>0.94441254138946396</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000000">
+                  <c:v>0.86169083118438705</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.000000">
+                  <c:v>0.76956002712249605</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.000000">
+                  <c:v>0.61266498565673799</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.000000">
+                  <c:v>0.23045248985290401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F6D-4B0C-BDE5-B1BBE4AB4366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1756860080"/>
+        <c:axId val="1756862576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="663197391"/>
+        <c:axId val="1755740448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2870,15 +2341,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663197807"/>
+        <c:crossAx val="1755741280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2886,7 +2357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="663197807"/>
+        <c:axId val="1755741280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2906,7 +2377,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2929,18 +2400,78 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="663197391"/>
+        <c:crossAx val="1755740448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1756862576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756860080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1756860080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1756862576"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2971,747 +2502,8 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>归一化时间</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>固定货币种类数量</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
-                <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-                <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1050" b="1">
               <a:latin typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
               <a:ea typeface="楷体" panose="02010609060101010101" pitchFamily="49" charset="-122"/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#C = 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>#E = 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#E = 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#E = 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#E = 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#E = 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#E = 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$B$13:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.11674787830207912</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32369340674021346</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.23416373109456409</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17637339070882641</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44020222048783192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94120418222343993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61768655824385843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C52-484B-BA93-1CE8DE1DC606}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#C = 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>#E = 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#E = 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#E = 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#E = 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#E = 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#E = 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$C$13:$C$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.11084004527752897</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13676633444075267</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35897765954403815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60682513801882332</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7692378418800816</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51280888224164722</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.67521341326370221</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C52-484B-BA93-1CE8DE1DC606}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$D$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#C = 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>#E = 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#E = 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#E = 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#E = 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#E = 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#E = 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$D$13:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.2309318949551147E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3813935238379592E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1038763550848732</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34968612954936912</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.4678350900561652E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77262478173119942</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74165011862454355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C52-484B-BA93-1CE8DE1DC606}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#C = 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$A$13:$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>#E = 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#E = 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#E = 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>#E = 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>#E = 5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>#E = 6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>#E = 7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>#E = 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'#E#C(有上界允许1%间隙) '!$E$13:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.7729742176712668E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6952645429251592E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2016058958874527E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9546376216492717E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3304611410406068E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0480065323919732E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56149516000268318</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5C52-484B-BA93-1CE8DE1DC606}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="808498559"/>
-        <c:axId val="808498975"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="808498559"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="808498975"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="808498975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="808498559"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -3883,46 +2675,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5432,600 +4184,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>159543</xdr:colOff>
+      <xdr:colOff>73818</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>235744</xdr:rowOff>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>188118</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>502444</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368CB2CA-5E3D-4E7B-B861-F115A68E4B48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621505</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>692943</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E85FFA-F509-4C00-827D-0B3C4DE7F6D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>159543</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>235744</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>188118</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>502444</xdr:rowOff>
+      <xdr:colOff>102393</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>326231</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6054,16 +4226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621505</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>250030</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>692943</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321468</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6085,6 +4257,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>130968</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAE300C-6520-4E15-9B41-662D28346E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6359,7 +4572,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6609,7 +4822,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6620,14 +4833,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -6810,11 +5023,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4778A3EF-D417-4E06-BC00-FC009FA5B12B}">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5ED76-EDB7-43BB-95A8-47FA3BE0CF2D}">
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6825,7 +5038,7 @@
     <col min="9" max="16384" width="10.59765625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6860,25 +5073,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>5.9883594512939401E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.6929616928100499E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6.0837984085083001E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.12299633026123</v>
+      <c r="B2" s="15">
+        <v>5.98502159118652E-3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.39622688293457E-2</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1.8949508666992101E-2</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.9919624328613201E-2</v>
       </c>
       <c r="F2" s="1">
         <f>MAX(B2:E2)</f>
-        <v>1.12299633026123</v>
+        <v>2.9919624328613201E-2</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="6" t="s">
@@ -6886,37 +5099,37 @@
       </c>
       <c r="I2" s="1" cm="1">
         <f t="array" ref="I2:L2">B2:E2/F2</f>
-        <v>5.3324835441812485E-3</v>
+        <v>0.20003665572307439</v>
       </c>
       <c r="J2" s="1">
-        <v>2.3980146864626142E-2</v>
+        <v>0.46665922927358033</v>
       </c>
       <c r="K2" s="1">
-        <v>5.4174695362478119E-2</v>
+        <v>0.63334714563478034</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.1942138671875E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3.1915187835693297E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.148607492446899</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.331161499023437</v>
+      <c r="B3" s="15">
+        <v>1.29311084747314E-2</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.8949031829833901E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>6.58237934112548E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.44121384620666498</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="0">MAX(B3:E3)</f>
-        <v>0.331161499023437</v>
+        <f t="shared" ref="F3:F8" si="0">MAX(B3:E3)</f>
+        <v>0.44121384620666498</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="6" t="s">
@@ -6924,37 +5137,37 @@
       </c>
       <c r="I3" s="1" cm="1">
         <f t="array" ref="I3:L3">B3:E3/F3</f>
-        <v>6.625812099709727E-2</v>
+        <v>2.930802962306504E-2</v>
       </c>
       <c r="J3" s="1">
-        <v>9.6373485232456299E-2</v>
+        <v>4.2947500385013201E-2</v>
       </c>
       <c r="K3" s="1">
-        <v>0.44874628507579539</v>
+        <v>0.14918795948308219</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1.79495811462402E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6.7821979522704995E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.17951798439025801</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.35604619979858299</v>
+      <c r="B4" s="15">
+        <v>8.9447498321533203E-3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2.6929855346679601E-2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.10272717475891099</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.50614762306213301</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.35604619979858299</v>
+        <v>0.50614762306213301</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="6" t="s">
@@ -6962,37 +5175,37 @@
       </c>
       <c r="I4" s="1" cm="1">
         <f t="array" ref="I4:L4">B4:E4/F4</f>
-        <v>5.0413629344715272E-2</v>
+        <v>1.7672215426081914E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>0.19048645810872916</v>
+        <v>5.3205535538737046E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>0.50419856887059089</v>
+        <v>0.20295891964763912</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.2939443588256801E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.3842306137084898E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.792880058288574</v>
-      </c>
-      <c r="E5" s="3">
-        <v>121.571772813796</v>
+      <c r="B5" s="15">
+        <v>8.9440345764160104E-3</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8.3445310592651298E-2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.11569023132324199</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.94070577621459905</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>121.571772813796</v>
+        <v>0.94070577621459905</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
@@ -7000,37 +5213,37 @@
       </c>
       <c r="I5" s="1" cm="1">
         <f t="array" ref="I5:L5">B5:E5/F5</f>
-        <v>1.8869054104682454E-4</v>
+        <v>9.5077917055073416E-3</v>
       </c>
       <c r="J5" s="1">
-        <v>4.4288493036579997E-4</v>
+        <v>8.8705005010637134E-2</v>
       </c>
       <c r="K5" s="1">
-        <v>6.5219091565192483E-3</v>
+        <v>0.1229823758378306</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.9766044616699201E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.11070442199706999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.78190994262695301</v>
-      </c>
-      <c r="E6" s="3">
-        <v>200.568012237548</v>
+      <c r="B6" s="15">
+        <v>8.9766979217529193E-3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7.8789234161376898E-2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.19048905372619601</v>
+      </c>
+      <c r="E6" s="16">
+        <v>43.704888820648101</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>200.568012237548</v>
+        <v>43.704888820648101</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="6" t="s">
@@ -7038,37 +5251,37 @@
       </c>
       <c r="I6" s="1" cm="1">
         <f t="array" ref="I6:L6">B6:E6/F6</f>
-        <v>3.4784232958379202E-5</v>
+        <v>2.0539345057232899E-4</v>
       </c>
       <c r="J6" s="1">
-        <v>5.5195452536047627E-4</v>
+        <v>1.8027556249989457E-3</v>
       </c>
       <c r="K6" s="1">
-        <v>3.8984777976503919E-3</v>
+        <v>4.3585296488890882E-3</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>2.3935079574584898E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7.47981071472167E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.61735224723815896</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10.6164124011993</v>
+      <c r="B7" s="15">
+        <v>3.4905195236205999E-2</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5.8842658996581997E-2</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.34284400939941401</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.3077516555786097</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>10.6164124011993</v>
+        <v>4.3077516555786097</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="6" t="s">
@@ -7076,37 +5289,37 @@
       </c>
       <c r="I7" s="1" cm="1">
         <f t="array" ref="I7:L7">B7:E7/F7</f>
-        <v>2.2545355879243193E-3</v>
+        <v>8.1028801163602806E-3</v>
       </c>
       <c r="J7" s="1">
-        <v>7.0455163496443499E-3</v>
+        <v>1.3659714788892201E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>5.8150740938475484E-2</v>
+        <v>7.9587691401714247E-2</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.29408740997314E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.51960492134094205</v>
-      </c>
-      <c r="D8" s="1">
-        <v>9.7158577442169101</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2980.8</v>
+      <c r="B8" s="15">
+        <v>6.9825649261474601E-3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7.0810079574584905E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.204452514648437</v>
+      </c>
+      <c r="E8" s="17">
+        <v>230.165712833404</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>2980.8</v>
+        <v>230.165712833404</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="6" t="s">
@@ -7114,237 +5327,219 @@
       </c>
       <c r="I8" s="1" cm="1">
         <f t="array" ref="I8:L8">B8:E8/F8</f>
-        <v>7.696213801573873E-6</v>
+        <v>3.0337120330348697E-5</v>
       </c>
       <c r="J8" s="1">
-        <v>1.7431727098126074E-4</v>
+        <v>3.076482535252237E-4</v>
       </c>
       <c r="K8" s="1">
-        <v>3.259479919557471E-3</v>
+        <v>8.8828397649488985E-4</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11">
+        <f>MAX(B2:B8)</f>
+        <v>3.4905195236205999E-2</v>
+      </c>
+      <c r="C9" s="11">
+        <f>MAX(C2:C8)</f>
+        <v>8.3445310592651298E-2</v>
+      </c>
+      <c r="D9" s="11">
+        <f>MAX(D2:D8)</f>
+        <v>0.34284400939941401</v>
+      </c>
+      <c r="E9" s="11">
+        <f>MAX(E2:E8)</f>
+        <v>230.165712833404</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>2.2938013076782199E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.30718183517455999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11.026761054992599</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4923.1231200000002</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>4923.1231200000002</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" cm="1">
-        <f t="array" ref="I9:L9">B9:E9/F9</f>
-        <v>4.6592401850762971E-6</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6.2395724763950245E-5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2.2397898216676326E-3</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="B12" s="1" cm="1">
+        <f t="array" ref="B12:B18">B2:B8/B9</f>
+        <v>0.17146506560657929</v>
+      </c>
+      <c r="C12" s="1" cm="1">
+        <f t="array" ref="C12:C18">C2:C8/C9</f>
+        <v>0.16732239031986182</v>
+      </c>
+      <c r="D12" s="1" cm="1">
+        <f t="array" ref="D12:D18">D2:D8/D9</f>
+        <v>5.5271517504965013E-2</v>
+      </c>
+      <c r="E12" s="1" cm="1">
+        <f t="array" ref="E12:E18">E2:E8/E9</f>
+        <v>1.2999166539748381E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.37046372000573691</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.2270832440463427</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.19199341860038144</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.9169399332993593E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25625841000525984</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.32272461035157568</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.29963240407457031</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.1990574392306956E-3</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.25623791862188644</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
+      <c r="D15" s="1">
+        <v>0.33744276741456092</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4.0870804110405895E-3</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25717369179593325</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.94420206002942908</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.55561435668626735</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.18988444578746658</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="11">
-        <f>MAX(B2:B9)</f>
-        <v>2.3935079574584898E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:E10" si="1">MAX(C2:C9)</f>
-        <v>0.51960492134094205</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>11.026761054992599</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>4923.1231200000002</v>
-      </c>
-      <c r="F10" s="1"/>
+      <c r="C17" s="1">
+        <v>0.70516435949084999</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.8715870415923326E-2</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" cm="1">
-        <f t="array" ref="B13:B20">B2:B9/B10</f>
-        <v>0.25019175025649754</v>
-      </c>
-      <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13:C20">C2:C9/C10</f>
-        <v>5.1827101365020486E-2</v>
-      </c>
-      <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13:D20">D2:D9/D10</f>
-        <v>5.5173032027874876E-3</v>
-      </c>
-      <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13:E20">E2:E9/E10</f>
-        <v>2.2810648909004535E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.91673556394497757</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6.142202763078132E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.3476984919303553E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6.726654827666325E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.74992778237093016</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.13052605303983095</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.6280209890734636E-2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.2321205689973274E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.95840264565548805</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.10362162467232663</v>
-      </c>
-      <c r="D16" s="1">
-        <v>7.1905072970596451E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2.4694034630154852E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.29148031198015828</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.2130549913025758</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7.0910210054195996E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.0739995191822052E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1">
+        <v>0.20004371495119666</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.84858069400991443</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.59634267784521611</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.14395188358529315</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5.598672576283311E-2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.1564385335135191E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.95846241196920101</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.8811161950242723</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.60546931842728324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.95834287934177498</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.59118345989067467</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7352,572 +5547,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F5ED76-EDB7-43BB-95A8-47FA3BE0CF2D}">
-  <dimension ref="A1:V20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4301A46-99EE-47BA-9C80-468A58730AA5}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="B2:E9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="7" customWidth="1"/>
-    <col min="2" max="7" width="10.59765625" style="7"/>
-    <col min="8" max="8" width="20.59765625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.59765625" style="7"/>
+    <col min="1" max="4" width="30.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6">
-        <v>3</v>
-      </c>
-      <c r="D1" s="6">
-        <v>4</v>
-      </c>
-      <c r="E1" s="6">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>9.7902061809162895</v>
+      </c>
+      <c r="C2" s="19" cm="1">
+        <f t="array" ref="C2:C10">B2:B10/B2</f>
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>7</v>
+      <c r="D2" s="19">
+        <v>59.599166870117102</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>3.9587020874023403E-3</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1.29337310791015E-2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2.4936676025390601E-2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>5.6817770004272398E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <f>MAX(B2:E2)</f>
-        <v>5.6817770004272398E-2</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" cm="1">
-        <f t="array" ref="I2:L2">B2:E2/F2</f>
-        <v>6.9673661727742336E-2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.22763531687584626</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.43888867907901863</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="B3" s="19">
+        <v>9.7901800055463699</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.99999732637194394</v>
+      </c>
+      <c r="D3" s="20">
+        <v>26.275810194015399</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.09758377075195E-2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1.5959024429321199E-2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>8.87598991394042E-2</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.54327440261840798</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F9" si="0">MAX(B3:E3)</f>
-        <v>0.54327440261840798</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="1" cm="1">
-        <f t="array" ref="I3:L3">B3:E3/F3</f>
-        <v>2.0203119555457592E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2.9375623722383809E-2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.16337949793255493</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>9.7901042026647804</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0.99998958364618429</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3.2906511545181201</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>7.9400539398193307E-3</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.116688251495361</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.21043658256530701</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.385073661804199</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.385073661804199</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1" cm="1">
-        <f t="array" ref="I4:L4">B4:E4/F4</f>
-        <v>2.0619571597334185E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.30302838929216158</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.54648396771501118</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="B5" s="19">
+        <v>9.7898698077363306</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0.99996564186966619</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1.554592132568358</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>5.9804916381835903E-3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4.1888475418090799E-2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.70840716361999501</v>
-      </c>
-      <c r="E5" s="11">
-        <v>2.86965560913085</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.86965560913085</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" cm="1">
-        <f t="array" ref="I5:L5">B5:E5/F5</f>
-        <v>2.0840450746613939E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.4597039200386075E-2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.24686138690856865</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="B6" s="19">
+        <v>9.7862604426505602</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.99959697087141841</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.94441254138946396</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1.4926433563232399E-2</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7.0809364318847601E-2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.17154455184936501</v>
-      </c>
-      <c r="E6" s="14">
-        <v>10.672990798950099</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>10.672990798950099</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" cm="1">
-        <f t="array" ref="I6:L6">B6:E6/F6</f>
-        <v>1.3985239793049115E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>6.6344444263751363E-3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1.6072772391618646E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="B7" s="19">
+        <v>9.7861317476265004</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.99958382558911463</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.86169083118438705</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>3.3908128738403299E-2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>8.9761018753051702E-2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1.5652120113372801</v>
-      </c>
-      <c r="E7" s="15">
-        <v>320.465855836868</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>320.465855836868</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="1" cm="1">
-        <f t="array" ref="I7:L7">B7:E7/F7</f>
-        <v>1.0580886581459745E-4</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.8009542083242789E-4</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4.8841771528198175E-3</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="B8" s="19">
+        <v>9.7583276578573397</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.99674383537283517</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.76956002712249605</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3.1914472579955999E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5.9838771820068297E-2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.50246238708496</v>
-      </c>
-      <c r="E8" s="11">
-        <v>3.3585031032562198</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3585031032562198</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" cm="1">
-        <f t="array" ref="I8:L8">B8:E8/F8</f>
-        <v>9.502588384990171E-3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.7817095884786267E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.44736072616048955</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="B9" s="19">
+        <v>9.7529796937994799</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.99619757884268323</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.61266498565673799</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2.0944595336914E-2</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7.8789472579955999E-2</v>
-      </c>
-      <c r="D9" s="11">
-        <v>2.0258371829986501</v>
-      </c>
-      <c r="E9" s="15">
-        <v>179.94002699851899</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>179.94002699851899</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" cm="1">
-        <f t="array" ref="I9:L9">B9:E9/F9</f>
-        <v>1.1639764473907958E-4</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4.3786518149519052E-4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.1258402128701047E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="19">
+        <v>9.7289195848946104</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.99374000966995535</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.23045248985290401</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11">
-        <f>MAX(B2:B9)</f>
-        <v>3.3908128738403299E-2</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:E10" si="1">MAX(C2:C9)</f>
-        <v>0.116688251495361</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>2.0258371829986501</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>320.465855836868</v>
-      </c>
-      <c r="F10" s="1"/>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
     </row>
-    <row r="12" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>7</v>
-      </c>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="19"/>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" cm="1">
-        <f t="array" ref="B13:B20">B2:B9/B10</f>
-        <v>0.11674787830207912</v>
-      </c>
-      <c r="C13" s="1" cm="1">
-        <f t="array" ref="C13:C20">C2:C9/C10</f>
-        <v>0.11084004527752897</v>
-      </c>
-      <c r="D13" s="1" cm="1">
-        <f t="array" ref="D13:D20">D2:D9/D10</f>
-        <v>1.2309318949551147E-2</v>
-      </c>
-      <c r="E13" s="1" cm="1">
-        <f t="array" ref="E13:E20">E2:E9/E10</f>
-        <v>1.7729742176712668E-4</v>
-      </c>
+    <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.32369340674021346</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.13676633444075267</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.3813935238379592E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.6952645429251592E-3</v>
-      </c>
+    <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.23416373109456409</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.1038763550848732</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.2016058958874527E-3</v>
-      </c>
-      <c r="P15" s="13"/>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="19"/>
     </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.17637339070882641</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.35897765954403815</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.34968612954936912</v>
-      </c>
-      <c r="E16" s="1">
-        <v>8.9546376216492717E-3</v>
-      </c>
-      <c r="P16" s="13"/>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="19"/>
     </row>
-    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.44020222048783192</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.60682513801882332</v>
-      </c>
-      <c r="D17" s="1">
-        <v>8.4678350900561652E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3.3304611410406068E-2</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="19"/>
     </row>
-    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.7692378418800816</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.77262478173119942</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="19"/>
     </row>
-    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.94120418222343993</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.51280888224164722</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.74165011862454355</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1.0480065323919732E-2</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-    </row>
-    <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.61768655824385843</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.67521341326370221</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.56149516000268318</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Time.xlsx
+++ b/doc/Time.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elden\Documents\Repositories\Digital-Currency-Exchange-Routing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1ACC15-E543-45E8-9E3C-977EB50283CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE921CA-FF74-44E3-AE2E-E4FACF877625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1718" windowWidth="21600" windowHeight="11422" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="345" windowWidth="28695" windowHeight="15255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#E#C(无上界)" sheetId="1" r:id="rId1"/>
     <sheet name="子环路消除约束(无上界)" sheetId="2" r:id="rId2"/>
     <sheet name="#E#C(有上界允许1%间隙) " sheetId="5" r:id="rId3"/>
     <sheet name="间隙研究" sheetId="11" r:id="rId4"/>
+    <sheet name="#E#C(有上界允许4%间隙)  " sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t xml:space="preserve">        货币种类数量
 交易所数量</t>
@@ -151,7 +152,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +210,11 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,8 +304,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4833,14 +4870,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -5550,7 +5587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4301A46-99EE-47BA-9C80-468A58730AA5}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5749,4 +5786,581 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5628087-A05B-4879-90EC-050CD183424B}">
+  <dimension ref="A1:X18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" style="7" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" style="7"/>
+    <col min="8" max="8" width="10.59765625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.59765625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6">
+        <v>9</v>
+      </c>
+      <c r="J1" s="6">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>6.9842338562011701E-3</v>
+      </c>
+      <c r="C2" s="26">
+        <v>2.490234375E-2</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2.1939992904662999E-2</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1.9947767257690398E-2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2912492752075098E-2</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0.14708733558654699</v>
+      </c>
+      <c r="H2" s="27">
+        <v>6.3797712326049805E-2</v>
+      </c>
+      <c r="I2" s="33">
+        <v>0.1845064163208</v>
+      </c>
+      <c r="J2" s="24">
+        <v>0.35505056381225503</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26">
+        <v>7.9748630523681606E-3</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1.49612426757812E-2</v>
+      </c>
+      <c r="D3" s="26">
+        <v>5.6848764419555602E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0.110703945159912</v>
+      </c>
+      <c r="F3" s="26">
+        <v>1.8789758682250901</v>
+      </c>
+      <c r="G3" s="26">
+        <v>19.918958425521801</v>
+      </c>
+      <c r="H3" s="27">
+        <v>460.84453129768298</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26">
+        <v>7.9474449157714792E-3</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2.7930736541747998E-2</v>
+      </c>
+      <c r="D4" s="26">
+        <v>9.17205810546875E-2</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.33307075500488198</v>
+      </c>
+      <c r="F4" s="26">
+        <v>45.396625995635901</v>
+      </c>
+      <c r="G4" s="26">
+        <v>54.328840494155799</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26">
+        <v>9.9389553070068307E-3</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1.5933036804199201E-2</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.17351102828979401</v>
+      </c>
+      <c r="E5" s="26">
+        <v>4.1738381385803196</v>
+      </c>
+      <c r="F5" s="26">
+        <v>8.7475855350494296</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26">
+        <v>5.9838294982910104E-3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>3.1914710998535101E-2</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.22041082382202101</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1.31448554992675</v>
+      </c>
+      <c r="F6" s="26">
+        <v>15.600257873535099</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1.29261016845703E-2</v>
+      </c>
+      <c r="C7" s="26">
+        <v>4.0888071060180602E-2</v>
+      </c>
+      <c r="D7" s="26">
+        <v>5.3852319717407199E-2</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.19946527481079099</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1.7732625007629299</v>
+      </c>
+      <c r="G7" s="26">
+        <v>4189.2489449882496</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
+        <v>1.5924215316772398E-2</v>
+      </c>
+      <c r="C8" s="26">
+        <v>7.9783678054809501E-2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0.61734938621520896</v>
+      </c>
+      <c r="E8" s="27">
+        <v>446.27465629577603</v>
+      </c>
+      <c r="F8" s="27">
+        <v>9490.6387329101508</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1.19342803955078E-2</v>
+      </c>
+      <c r="C9" s="27">
+        <v>4.7877311706542899E-2</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.94643282890319802</v>
+      </c>
+      <c r="E9" s="27">
+        <v>213.494951963424</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <v>1.4962434768676701E-2</v>
+      </c>
+      <c r="C10" s="27">
+        <v>4.2883872985839802E-2</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.94447374343872004</v>
+      </c>
+      <c r="E10" s="27">
+        <v>41.717653989791799</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <v>8.9762210845947196E-3</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.14458012580871499</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1.2376568317413299</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="6"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="6"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Time.xlsx
+++ b/doc/Time.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elden\Documents\Repositories\Digital-Currency-Exchange-Routing\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE921CA-FF74-44E3-AE2E-E4FACF877625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D10C75-E16C-44F8-863C-DA6C4A578EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="345" windowWidth="28695" windowHeight="15255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="848" windowWidth="28695" windowHeight="15255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#E#C(无上界)" sheetId="1" r:id="rId1"/>
     <sheet name="子环路消除约束(无上界)" sheetId="2" r:id="rId2"/>
     <sheet name="#E#C(有上界允许1%间隙) " sheetId="5" r:id="rId3"/>
     <sheet name="间隙研究" sheetId="11" r:id="rId4"/>
-    <sheet name="#E#C(有上界允许4%间隙)  " sheetId="13" r:id="rId5"/>
+    <sheet name="#E#C(有上界允许5%间隙)  " sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -305,9 +305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -337,6 +334,9 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4870,14 +4870,14 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="9"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
@@ -5793,7 +5793,7 @@
   <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -5843,36 +5843,36 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>6.9842338562011701E-3</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>2.490234375E-2</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>2.1939992904662999E-2</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>1.9947767257690398E-2</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>3.2912492752075098E-2</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>0.14708733558654699</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>6.3797712326049805E-2</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="32">
         <v>0.1845064163208</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <v>0.35505056381225503</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="25"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
@@ -5889,32 +5889,32 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>7.9748630523681606E-3</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>1.49612426757812E-2</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>5.6848764419555602E-2</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>0.110703945159912</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>1.8789758682250901</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="25">
         <v>19.918958425521801</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>460.84453129768298</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
@@ -5931,30 +5931,30 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>7.9474449157714792E-3</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>2.7930736541747998E-2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>9.17205810546875E-2</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>0.33307075500488198</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>45.396625995635901</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>54.328840494155799</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -5971,28 +5971,28 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>9.9389553070068307E-3</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>1.5933036804199201E-2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>0.17351102828979401</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>4.1738381385803196</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>8.7475855350494296</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
@@ -6009,28 +6009,28 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>5.9838294982910104E-3</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>3.1914710998535101E-2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>0.22041082382202101</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>1.31448554992675</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>15.600257873535099</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="22"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -6047,30 +6047,30 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>1.29261016845703E-2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>4.0888071060180602E-2</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>5.3852319717407199E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>0.19946527481079099</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>1.7732625007629299</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>4189.2489449882496</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="22"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
@@ -6087,28 +6087,28 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>1.5924215316772398E-2</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>7.9783678054809501E-2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="29">
         <v>0.61734938621520896</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>446.27465629577603</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>9490.6387329101508</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="22"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -6125,26 +6125,26 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>1.19342803955078E-2</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>4.7877311706542899E-2</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>0.94643282890319802</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>213.494951963424</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
       <c r="N9" s="22"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -6161,26 +6161,26 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <v>1.4962434768676701E-2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>4.2883872985839802E-2</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>0.94447374343872004</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>41.717653989791799</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
       <c r="N10" s="22"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -6197,24 +6197,24 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>8.9762210845947196E-3</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>0.14458012580871499</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>1.2376568317413299</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
       <c r="N11" s="22"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -6229,33 +6229,33 @@
     </row>
     <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -6269,18 +6269,18 @@
     </row>
     <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
@@ -6294,18 +6294,18 @@
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
